--- a/Project Documents/MovieVehicleData.xlsx
+++ b/Project Documents/MovieVehicleData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\CIT 218\Projects\MovieVehicles\Project Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F76D0D-617C-489A-98D7-8CFE70909708}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065AC02A-FA94-45C3-A34F-3F634DAF2FC4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21075" windowHeight="8655" xr2:uid="{C5B2F26A-AAE5-49F6-8D4C-D76EDF65C5DE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>Vehicle Name</t>
   </si>
@@ -70,404 +70,427 @@
     <t>Andrew Probert ,Ron Cobb </t>
   </si>
   <si>
-    <r>
-      <t>Universal Studios</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> permanently loans the film's iconic DMC-12 to L.A.'s </t>
+    <t>Doc Brown's Time Machine went through several variations before settling on a stock 1981 Delorean DMC-12 which was modified during production of the first Back to the Future.   movie.  Equipment was added to the back of the vehicle as well as the vents for exhaust.  Switches, circuits, and panels were added to the interior as well for the time travel electronics.</t>
+  </si>
+  <si>
+    <t>Bullitt Mustang</t>
+  </si>
+  <si>
+    <t>Ford Motor Co.</t>
+  </si>
+  <si>
+    <t>Bullitt</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>Mustang GT390</t>
+  </si>
+  <si>
+    <t>This stock 1968 Ford Mustang GT390 was driven in the movie by Steve McQueen, including in the famous car chase.</t>
+  </si>
+  <si>
+    <t>Herbie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volkswagen </t>
+  </si>
+  <si>
+    <t>Beetle</t>
+  </si>
+  <si>
+    <t>Owned by a private owner (Robert Kiernan Jr.)</t>
+  </si>
+  <si>
+    <t>Volkswagen</t>
+  </si>
+  <si>
+    <t>Herbie the Love Bug</t>
+  </si>
+  <si>
+    <r>
+      <t>This 1963 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Volkswagen Beetle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, was a character that is featured in several </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Walt Disney</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> motion pictures starting with the 1968 feature film </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The Love Bug</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. He has a mind of his own and is capable of driving himself, and is also a serious contender in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>auto racing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> competitions. Throughout most of the franchise, Herbie is distinguished by red, white and blue </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>racing stripes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> from front to back bumper, a racing-style number </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> on the front luggage compartment lid, doors, and engine lid, and a yellow-on-black '63 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>California license plate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> with the registration "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>OFP 857</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <t>Housed at the John Staluppi’s  Cars of Dreams Museum</t>
+  </si>
+  <si>
+    <t>The General Lee</t>
+  </si>
+  <si>
+    <t>Dodge</t>
+  </si>
+  <si>
+    <t>Charger</t>
+  </si>
+  <si>
+    <t>Dukes of Hazzard</t>
+  </si>
+  <si>
+    <t>The 18  Dodge Chargers remaining after the series ended were sold to private owners.</t>
+  </si>
+  <si>
+    <t>Nathan Crowley, Christopher Nolan</t>
+  </si>
+  <si>
+    <t>The Tumbler</t>
+  </si>
+  <si>
+    <t>Batman Begins</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The General Lee (sometimes referred to as simply "the General") is the name given to a 1969 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Dodge Charger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> driven in the Dukes of Hazzard movie and television series </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The Dukes of Hazzard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> by the Duke.  boys, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Luke.   It is known for its signature horn, its police chases, stunts—especially its long jumps—and for having its doors welded shut, leaving the Dukes to climb in and out through the windows.</t>
+    </r>
+  </si>
+  <si>
+    <t> the Tumbler, a prototype armored tank designed as a bridging vehicle for the military, includes weaponry and the ability to boost into a rampless jump.</t>
+  </si>
+  <si>
+    <t>Lotus</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>The Spy Who Loved Me</t>
+  </si>
+  <si>
+    <t>The Lotus Esprit S1 featured in "The Spy Who Loved Me" is a 1976 Lotus Esprit S1.  Two Stree legal Esprit S1's were used in the movie as well as several body shells for the underwater scenes.  In the movie the Lotus was not just amphibious, it also contained cannons that spray cement on to pursuing vehicles. It also has wheel arches that turn into fins, a small periscope on the roof enabling 007 to navigate at speed underwater and its other weaponry includes a missile launched from its rear deck, mines, and torpedoes which were all compliments of Q branch.</t>
+  </si>
+  <si>
+    <t>Sold at auction in Sept. 2013 for £550,000 to a private collector.</t>
+  </si>
+  <si>
+    <t>Perry Oceanographic Inc.</t>
+  </si>
+  <si>
+    <t>George Barris Batmobile</t>
+  </si>
+  <si>
+    <t>Batman: The Movie</t>
+  </si>
+  <si>
+    <t>George Barris</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>Futura</t>
+  </si>
+  <si>
+    <t>Sold at auction for $5,000,000 to a private collector (Dave Anderson).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taking approxiately 3 weeks to build the original batmobile was created from a 1955 Lincoln Futura.  This vehicle would be used  was used in the TV series and first movie starring Adam West and Burt Ward.  </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Universal Studios permanently loans the film's iconic DMC-12 to L.A.'s </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>Petersen Automotive Museum</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>. The DeLorean that teleported Michael J. Fox in the first installment of the Back to the Future trilogy was unveiled at an event at the </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>Petersen Automotive Museum</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t> in Los Angeles Wednesday evening.</t>
     </r>
   </si>
   <si>
-    <t>Doc Brown's Time Machine went through several variations before settling on a stock 1981 Delorean DMC-12 which was modified during production of the first Back to the Future.   movie.  Equipment was added to the back of the vehicle as well as the vents for exhaust.  Switches, circuits, and panels were added to the interior as well for the time travel electronics.</t>
-  </si>
-  <si>
-    <t>Bullitt Mustang</t>
-  </si>
-  <si>
-    <t>Ford Motor Co.</t>
-  </si>
-  <si>
-    <t>Bullitt</t>
-  </si>
-  <si>
-    <t>Ford</t>
-  </si>
-  <si>
-    <t>Mustang GT390</t>
-  </si>
-  <si>
-    <t>This stock 1968 Ford Mustang GT390 was driven in the movie by Steve McQueen, including in the famous car chase.</t>
-  </si>
-  <si>
-    <t>Herbie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volkswagen </t>
-  </si>
-  <si>
-    <t>Beetle</t>
-  </si>
-  <si>
-    <t>Owned by a private owner (Robert Kiernan Jr.)</t>
-  </si>
-  <si>
-    <t>Volkswagen</t>
-  </si>
-  <si>
-    <t>Herbie the Love Bug</t>
-  </si>
-  <si>
-    <r>
-      <t>This 1963 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0B0080"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Volkswagen Beetle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, was a character that is featured in several </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0B0080"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Walt Disney</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> motion pictures starting with the 1968 feature film </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF0B0080"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>The Love Bug</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>. He has a mind of his own and is capable of driving himself, and is also a serious contender in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0B0080"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>auto racing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> competitions. Throughout most of the franchise, Herbie is distinguished by red, white and blue </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0B0080"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>racing stripes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> from front to back bumper, a racing-style number </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>53</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> on the front luggage compartment lid, doors, and engine lid, and a yellow-on-black '63 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0B0080"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>California license plate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> with the registration "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>OFP 857</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>".</t>
-    </r>
-  </si>
-  <si>
-    <t>Housed at the John Staluppi’s  Cars of Dreams Museum</t>
-  </si>
-  <si>
-    <t>The General Lee</t>
-  </si>
-  <si>
-    <t>Dodge</t>
-  </si>
-  <si>
-    <t>Charger</t>
-  </si>
-  <si>
-    <t>Dukes of Hazzard</t>
-  </si>
-  <si>
-    <t>The 18  Dodge Chargers remaining after the series ended were sold to private owners.</t>
-  </si>
-  <si>
-    <t>Nathan Crowley, Christopher Nolan</t>
-  </si>
-  <si>
-    <t>The Tumbler</t>
-  </si>
-  <si>
-    <t>Batman Begins</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>The General Lee (sometimes referred to as simply "the General") is the name given to a 1969 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0B0080"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Dodge Charger</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> driven in the Dukes of Hazzard movie and television series </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF0B0080"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>The Dukes of Hazzard</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> by the Duke.  boys, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0B0080"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Bo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0B0080"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Luke.   It is known for its signature horn, its police chases, stunts—especially its long jumps—and for having its doors welded shut, leaving the Dukes to climb in and out through the windows.</t>
-    </r>
-  </si>
-  <si>
-    <t> the Tumbler, a prototype armored tank designed as a bridging vehicle for the military, includes weaponry and the ability to boost into a rampless jump.</t>
-  </si>
-  <si>
-    <t>James Bond?s submersible Lotus</t>
-  </si>
-  <si>
-    <t>Lotus</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>The Spy Who Loved Me</t>
-  </si>
-  <si>
-    <t>The Lotus Esprit S1 featured in "The Spy Who Loved Me" is a 1976 Lotus Esprit S1.  Two Stree legal Esprit S1's were used in the movie as well as several body shells for the underwater scenes.  In the movie the Lotus was not just amphibious, it also contained cannons that spray cement on to pursuing vehicles. It also has wheel arches that turn into fins, a small periscope on the roof enabling 007 to navigate at speed underwater and its other weaponry includes a missile launched from its rear deck, mines, and torpedoes which were all compliments of Q branch.</t>
-  </si>
-  <si>
-    <t>Sold at auction in Sept. 2013 for £550,000 to a private collector.</t>
-  </si>
-  <si>
-    <t>Perry Oceanographic Inc.</t>
-  </si>
-  <si>
-    <t>George Barris Batmobile</t>
-  </si>
-  <si>
-    <t>Batman: The Movie</t>
-  </si>
-  <si>
-    <t>George Barris</t>
-  </si>
-  <si>
-    <t>Lincoln</t>
-  </si>
-  <si>
-    <t>Futura</t>
-  </si>
-  <si>
-    <t>Sold at auction for $5,000,000 to a private collector (Dave Anderson).</t>
-  </si>
-  <si>
-    <t>Tim Burton?s Batmobile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taking approxiately 3 weeks to build the original batmobile was created from a 1955 Lincoln Futura.  This vehicle would be used  was used in the TV series and first movie starring Adam West and Burt Ward.  </t>
+    <t>James Bond's submersible Lotus</t>
+  </si>
+  <si>
+    <t>Tim Burton's Batmobile</t>
+  </si>
+  <si>
+    <t>The Batmobile was built upon a Chevrolet Impala chasis with a Chevy V8 engine, and was based on and modified from a 1970 Corvette body when previous development with a Jaguar and Ford Mustang failed. A second car was based on an Oldsmobile Cutlass Convertible.  All gadgets (aside from the Cocoon-mode) on the Batmobile in both movies were fully functional, although the exhaust after-burner could only run for 15 seconds at a time due to the amount of fuel that it consumed.</t>
+  </si>
+  <si>
+    <t>Batman (Directed by Tim Burton)</t>
+  </si>
+  <si>
+    <t>Chevy</t>
+  </si>
+  <si>
+    <t>Impala</t>
+  </si>
+  <si>
+    <t>Anton Furst, Tim Burton, Terry Ackland-Snow, John Eveans, Keith Short</t>
+  </si>
+  <si>
+    <t>X-34 Landspeeder</t>
+  </si>
+  <si>
+    <t>Star Wars (Episode IV)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,19 +513,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF0B0080"/>
       <name val="Arial"/>
@@ -538,6 +548,35 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -560,20 +599,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -886,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B2CEC6-2D1C-43A4-A6E5-F15BA8888173}">
-  <dimension ref="B2:J11"/>
+  <dimension ref="B2:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,12 +973,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
@@ -944,8 +986,8 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
+      <c r="G4" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="H4">
         <v>1981</v>
@@ -959,156 +1001,185 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5">
         <v>1968</v>
       </c>
       <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
         <v>19</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
         <v>28</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
       </c>
       <c r="H6">
         <v>1963</v>
       </c>
       <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
         <v>23</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
       <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
       </c>
       <c r="H7">
         <v>1969</v>
       </c>
       <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
         <v>31</v>
-      </c>
-      <c r="J7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
         <v>36</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
         <v>43</v>
-      </c>
-      <c r="G9" t="s">
-        <v>45</v>
       </c>
       <c r="H9">
         <v>1976</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
         <v>47</v>
       </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H10">
         <v>1955</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11">
+        <v>1970</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D11" r:id="rId1" tooltip="Anton Furst" display="http://batman.wikia.com/wiki/Anton_Furst" xr:uid="{425B468C-1F7A-472F-BF0F-53429009E90B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Project Documents/MovieVehicleData.xlsx
+++ b/Project Documents/MovieVehicleData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\CIT 218\Projects\MovieVehicles\Project Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065AC02A-FA94-45C3-A34F-3F634DAF2FC4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465BE946-85F6-494D-89BA-7F30B0B2C9DC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21075" windowHeight="8655" xr2:uid="{C5B2F26A-AAE5-49F6-8D4C-D76EDF65C5DE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
   <si>
     <t>Vehicle Name</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Movie Title</t>
   </si>
   <si>
-    <t>Movie Poster Path</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -484,13 +481,73 @@
   </si>
   <si>
     <t>Star Wars (Episode IV)</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Bandit Trans Am</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pontiac </t>
+  </si>
+  <si>
+    <t>Trans Am</t>
+  </si>
+  <si>
+    <t>Pontiac</t>
+  </si>
+  <si>
+    <t>Smokey and the Bandit</t>
+  </si>
+  <si>
+    <t>Photo Path</t>
+  </si>
+  <si>
+    <t>Destroyed in production of the movie</t>
+  </si>
+  <si>
+    <t>After seeing an advertisement for the soon-to-be-released 1977 Pontiac Trans Am director Hal Needham knew right away that would be the Bandit's car, or, as Needham referred to it, a character in the movie. He contacted Pontiac and an agreement was made that four 1977 Trans Ams would be provided for the movie. The Trans Ams were actually 1976-model cars with 1977 front ends. (From 1970 to 1976, both the Firebird/Trans Am and Chevrolet Camaro had two round headlights, and in 1977, the Firebird/Trans Am was changed to four square headlights, while the Camaro remained unchanged.) The decals were also changed to 1977-style units, as evidenced by the engine size callouts on the hood scoop being in liters rather than cubic inches, as had been the case in 1976.</t>
+  </si>
+  <si>
+    <t>Ecto-1</t>
+  </si>
+  <si>
+    <t>Ghostbusters</t>
+  </si>
+  <si>
+    <t>Cadillac</t>
+  </si>
+  <si>
+    <t>Miller-Meteor</t>
+  </si>
+  <si>
+    <t>This modified Cadillac Miller-Meteor Futura Ambulance/Hearse Combination was used in the Ghostbusters and Ghostbusters 2 movies.  The vehicle used for the Ecto-1 was a 1959 Cadillac professional chassis, built by the Miller-Meteor company.  Stephen Dane is credited as a Hardware Consultant for the movies and was the fabricator of the original Ectomobile.</t>
+  </si>
+  <si>
+    <t>On display in the Hollywood Gallery of the Petersen Automotive Museum in Los Angeles.</t>
+  </si>
+  <si>
+    <t>James Bond 1964 Aston Martin DB5</t>
+  </si>
+  <si>
+    <t>Goldfinger</t>
+  </si>
+  <si>
+    <t>DB5</t>
+  </si>
+  <si>
+    <t>Aston Martin</t>
+  </si>
+  <si>
+    <t>The Aston Martin DB5 is the most famous Aston Martin car due to its use by James Bond in Goldfinger (1964). The car used in the film was the original DB5 prototype, with another standard car used for stunts. Famous for its array of gadgets, the film's script initially had the car armed only with smoke screen. However, the gadgets rapidly increased as crew members began suggesting devices to install in it. For instance, director Guy Hamilton conceived the revolving license plate because he had been getting lots of parking tickets, while his stepson suggested the ejector seat (which he saw on television).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,6 +638,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -603,7 +666,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -613,6 +676,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -928,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B2CEC6-2D1C-43A4-A6E5-F15BA8888173}">
-  <dimension ref="B2:J12"/>
+  <dimension ref="B2:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,229 +1013,310 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H4">
         <v>1981</v>
       </c>
       <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
         <v>10</v>
-      </c>
-      <c r="J4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5">
         <v>1968</v>
       </c>
       <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
         <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
         <v>27</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
       </c>
       <c r="H6">
         <v>1963</v>
       </c>
       <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
         <v>22</v>
-      </c>
-      <c r="J6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
       <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
         <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
       </c>
       <c r="H7">
         <v>1969</v>
       </c>
       <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
         <v>30</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
         <v>35</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
         <v>42</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" t="s">
-        <v>43</v>
       </c>
       <c r="H9">
         <v>1976</v>
       </c>
       <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s">
         <v>39</v>
-      </c>
-      <c r="J9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
-      </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10">
         <v>1955</v>
       </c>
       <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" t="s">
         <v>48</v>
-      </c>
-      <c r="J10" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
         <v>54</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" t="s">
-        <v>56</v>
+      <c r="G11" t="s">
+        <v>61</v>
       </c>
       <c r="H11">
         <v>1970</v>
       </c>
       <c r="I11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" t="s">
         <v>57</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
         <v>60</v>
       </c>
-      <c r="E12" t="s">
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13">
+        <v>1977</v>
+      </c>
+      <c r="I13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14">
+        <v>1959</v>
+      </c>
+      <c r="I14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" t="s">
         <v>61</v>
+      </c>
+      <c r="H15">
+        <v>1964</v>
+      </c>
+      <c r="I15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Project Documents/MovieVehicleData.xlsx
+++ b/Project Documents/MovieVehicleData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\CIT 218\Projects\MovieVehicles\Project Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465BE946-85F6-494D-89BA-7F30B0B2C9DC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A322DB2E-0D17-4AB2-B81D-B109E657BE21}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21075" windowHeight="8655" xr2:uid="{C5B2F26A-AAE5-49F6-8D4C-D76EDF65C5DE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21075" windowHeight="8670" xr2:uid="{C5B2F26A-AAE5-49F6-8D4C-D76EDF65C5DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Vehicles" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="111">
   <si>
     <t>Vehicle Name</t>
   </si>
@@ -541,13 +541,103 @@
   </si>
   <si>
     <t>The Aston Martin DB5 is the most famous Aston Martin car due to its use by James Bond in Goldfinger (1964). The car used in the film was the original DB5 prototype, with another standard car used for stunts. Famous for its array of gadgets, the film's script initially had the car armed only with smoke screen. However, the gadgets rapidly increased as crew members began suggesting devices to install in it. For instance, director Guy Hamilton conceived the revolving license plate because he had been getting lots of parking tickets, while his stepson suggested the ejector seat (which he saw on television).</t>
+  </si>
+  <si>
+    <t>Chitty Chitty Bang Bang Car</t>
+  </si>
+  <si>
+    <t>Chitty Chitty Bang Bang</t>
+  </si>
+  <si>
+    <t>Ken Adam, Frederick Rowland Emett, Alan Mann</t>
+  </si>
+  <si>
+    <t>Sold at auction to a private collector (Peter Jackson)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chitty Chitty Bang Bang is the vintage racing car which features in the book, musical film and stage production of the same name. Writer Ian Fleming took his inspiration for the car from a series of aero-engined racing cars built by Count Louis Zborowski in the early 1920s, christened Chitty Bang Bang.  This fully functional road-going car with UK registration GEN 11 was fitted with a Ford 3000 V6 engine and automatic transmission and allocated a genuine UK registration. </t>
+  </si>
+  <si>
+    <t>James Dean's Mercury</t>
+  </si>
+  <si>
+    <t>Mercury</t>
+  </si>
+  <si>
+    <t>Series 9CM Coupe</t>
+  </si>
+  <si>
+    <t>Rebel Without a Cause</t>
+  </si>
+  <si>
+    <t>Dislayed at the National Automobile Museum in Reno, Nevada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The car driven by James Dean in the movie, “Rebel Without A Cause,”   was a 49 Mercury.  Customized for the movie, the 49 Mercury was dechromed.  When the movie debuted, James Dean was already dead, and the movie inspired a new generation of teens to love this old classic.  In fact, the 1949 Mercury is considered by most to be one of the most famous movie cars in all time history. </t>
+  </si>
+  <si>
+    <t>Mad Max Interceptor</t>
+  </si>
+  <si>
+    <t>Mad Max</t>
+  </si>
+  <si>
+    <t>Falcon XB GT Coupe</t>
+  </si>
+  <si>
+    <t>The vehicle started out as a standard white Australian built 1973 Ford Falcon XB GT Hardtop when in 1976, filmmakers Byron Kennedy and George Miller began preproduction on Mad Max. The movie's art director Jon Dowding designed the Interceptor and commissioned Melbourne-based car customizers Graf-X International to modify the GT Falcon. Peter Arcadipane, Ray Beckerley, John Evans, and painter Rod Smythe transformed the car as specified for the film.</t>
+  </si>
+  <si>
+    <t>On display at the Miami Auto Museum</t>
+  </si>
+  <si>
+    <t>TBBatmobile.gif</t>
+  </si>
+  <si>
+    <t>BanditTransAm.jpg</t>
+  </si>
+  <si>
+    <t>Ghostbusters-Ecto-1.jpg</t>
+  </si>
+  <si>
+    <t>JB1964AstonMartinDB5.jpg</t>
+  </si>
+  <si>
+    <t>Chitty-1.jpg</t>
+  </si>
+  <si>
+    <t>JamesDeanMercury.jpg</t>
+  </si>
+  <si>
+    <t>MadMaxInterceptor.jpg</t>
+  </si>
+  <si>
+    <t>Knight Industries Two Thousand (KITT)</t>
+  </si>
+  <si>
+    <t>KITT.jpg</t>
+  </si>
+  <si>
+    <t>Knight Rider</t>
+  </si>
+  <si>
+    <t>KITT is an artificially intelligent electronic computer module in the body of a highly advanced, very mobile, robotic automobile.  KITT is used  by the Foundation for Law and Government (FLAG) and its parent Knight Industries in the Foundation's crime-fighting crusade.</t>
+  </si>
+  <si>
+    <t>Firebid Trans Am</t>
+  </si>
+  <si>
+    <t>The Orca</t>
+  </si>
+  <si>
+    <t>Jaws</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,6 +734,12 @@
       <name val="Georgia"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -666,7 +762,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -677,6 +773,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -992,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B2CEC6-2D1C-43A4-A6E5-F15BA8888173}">
-  <dimension ref="B2:J15"/>
+  <dimension ref="B2:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,6 +1317,9 @@
       <c r="E11" t="s">
         <v>55</v>
       </c>
+      <c r="F11" t="s">
+        <v>97</v>
+      </c>
       <c r="G11" t="s">
         <v>61</v>
       </c>
@@ -1254,6 +1354,9 @@
       <c r="E13" t="s">
         <v>66</v>
       </c>
+      <c r="F13" t="s">
+        <v>98</v>
+      </c>
       <c r="G13" t="s">
         <v>68</v>
       </c>
@@ -1280,6 +1383,9 @@
       <c r="E14" t="s">
         <v>71</v>
       </c>
+      <c r="F14" t="s">
+        <v>99</v>
+      </c>
       <c r="G14" s="9" t="s">
         <v>75</v>
       </c>
@@ -1306,6 +1412,9 @@
       <c r="E15" t="s">
         <v>77</v>
       </c>
+      <c r="F15" t="s">
+        <v>100</v>
+      </c>
       <c r="G15" t="s">
         <v>61</v>
       </c>
@@ -1317,6 +1426,118 @@
       </c>
       <c r="J15" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17">
+        <v>1949</v>
+      </c>
+      <c r="I17" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18">
+        <v>1973</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19">
+        <v>1982</v>
+      </c>
+      <c r="I19" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Project Documents/MovieVehicleData.xlsx
+++ b/Project Documents/MovieVehicleData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\CIT 218\Projects\MovieVehicles\Project Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A322DB2E-0D17-4AB2-B81D-B109E657BE21}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900C22AF-5ED1-4C50-A414-873F1BBEE6CD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21075" windowHeight="8670" xr2:uid="{C5B2F26A-AAE5-49F6-8D4C-D76EDF65C5DE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="112">
   <si>
     <t>Vehicle Name</t>
   </si>
@@ -631,6 +631,9 @@
   </si>
   <si>
     <t>Jaws</t>
+  </si>
+  <si>
+    <t>Orca.jpg</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1095,7 @@
   <dimension ref="B2:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1538,6 +1541,9 @@
       </c>
       <c r="E20" t="s">
         <v>110</v>
+      </c>
+      <c r="G20" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Project Documents/MovieVehicleData.xlsx
+++ b/Project Documents/MovieVehicleData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\CIT 218\Projects\MovieVehicles\Project Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900C22AF-5ED1-4C50-A414-873F1BBEE6CD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE41881A-5D79-4274-BA50-1302935BCF99}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21075" windowHeight="8670" xr2:uid="{C5B2F26A-AAE5-49F6-8D4C-D76EDF65C5DE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="141">
   <si>
     <t>Vehicle Name</t>
   </si>
@@ -634,13 +634,183 @@
   </si>
   <si>
     <t>Orca.jpg</t>
+  </si>
+  <si>
+    <t>utilized for further study by Dr. Matthew Hooper at the Woods Hole Oceanagraphic Institute</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Captained by Eccentric fisherman Quint The Orca was used to persue the killer great whte that was terrorizing a small New England Town</t>
+  </si>
+  <si>
+    <t>Steve McQueen's Triumph</t>
+  </si>
+  <si>
+    <t>Triumph</t>
+  </si>
+  <si>
+    <t>The Great Escape</t>
+  </si>
+  <si>
+    <t>greatescapetriumph.jpg</t>
+  </si>
+  <si>
+    <t>TR6</t>
+  </si>
+  <si>
+    <t>Purchased by private collector (Dick Shepherd)</t>
+  </si>
+  <si>
+    <t>This Triumph TR6 was riden by Steve McQueen to escape from a escape proof prison during World War 2 and make his way across occupied Europe.</t>
+  </si>
+  <si>
+    <t>The Family Truckster</t>
+  </si>
+  <si>
+    <t>LTD Country Squire</t>
+  </si>
+  <si>
+    <t>Milner’s Deuce Coupe</t>
+  </si>
+  <si>
+    <t>American Graffiti</t>
+  </si>
+  <si>
+    <t>Coupe</t>
+  </si>
+  <si>
+    <t>Mr. Frye’s Ferrari</t>
+  </si>
+  <si>
+    <t>Ferris Bueller's Day Off</t>
+  </si>
+  <si>
+    <t>Ferari</t>
+  </si>
+  <si>
+    <t>Ferrari</t>
+  </si>
+  <si>
+    <t>250 GT California Spyder SWB</t>
+  </si>
+  <si>
+    <t>fbferrari.jpg</t>
+  </si>
+  <si>
+    <t>Purchased by private collector (Steve Fitch)</t>
+  </si>
+  <si>
+    <t>FamilyTruckster.jpg</t>
+  </si>
+  <si>
+    <t>DeuceCoupe.jpg</t>
+  </si>
+  <si>
+    <t>National Lampoon's Vacation</t>
+  </si>
+  <si>
+    <r>
+      <t>The Wagon Queen Family Truckster </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>station wagon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> was created specifically for the film. It is based on a 1979 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ford LTD Country Squire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> station wagon.</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[10]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> The car was designed by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>George Barris</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, and it lampooned American cars of the late 1970s. The Truckster features a pale avocado metallic green paint scheme; extensive imitation wood-paneling decals; eight headlights</t>
+    </r>
+  </si>
+  <si>
+    <t>This Ferrari was used by Ferris Bueller and two friends to take day long adventure while skipping school.</t>
+  </si>
+  <si>
+    <t>Sold at auction to a private collector  in 2015 for $16,830,000</t>
+  </si>
+  <si>
+    <t>This 1932 Ford Coupe cruised around town and could beat anyone looking for a race.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -743,6 +913,34 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3A3A3A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0B0080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <color rgb="FF0B0080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -765,7 +963,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -777,6 +975,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1092,10 +1293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B2CEC6-2D1C-43A4-A6E5-F15BA8888173}">
-  <dimension ref="B2:J20"/>
+  <dimension ref="B2:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1525,6 +1726,9 @@
       <c r="F19" t="s">
         <v>105</v>
       </c>
+      <c r="G19" t="s">
+        <v>61</v>
+      </c>
       <c r="H19">
         <v>1982</v>
       </c>
@@ -1539,11 +1743,145 @@
       <c r="B20" t="s">
         <v>109</v>
       </c>
+      <c r="C20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
       <c r="E20" t="s">
         <v>110</v>
       </c>
-      <c r="G20" t="s">
+      <c r="F20" t="s">
         <v>111</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" t="s">
+        <v>120</v>
+      </c>
+      <c r="H21">
+        <v>1961</v>
+      </c>
+      <c r="I21" t="s">
+        <v>116</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22">
+        <v>1979</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23">
+        <v>1932</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" t="s">
+        <v>139</v>
+      </c>
+      <c r="H24">
+        <v>1961</v>
+      </c>
+      <c r="I24" t="s">
+        <v>130</v>
+      </c>
+      <c r="J24" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
